--- a/xlsx/列宁_intext.xlsx
+++ b/xlsx/列宁_intext.xlsx
@@ -29,7 +29,7 @@
     <t>ru-Жуков, Павел Семёнович</t>
   </si>
   <si>
-    <t>政策_政策_政治_列宁</t>
+    <t>体育运动_体育运动_苏联_列宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E9%83%A8%E9%95%BF%E4%BC%9A%E8%AE%AE%E4%B8%BB%E5%B8%AD</t>
